--- a/BackEnd/KI_Liste_test.xlsx
+++ b/BackEnd/KI_Liste_test.xlsx
@@ -1,30 +1,333 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keski\OneDrive\Dokumente\GitHub\SearchAI\KI-Search\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97140E5B-8C86-45EE-BED8-2DDC81673972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="4" xr2:uid="{7BF092D1-B0BE-4A43-A790-2ACD97545ECC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="NLP" sheetId="1" r:id="rId1"/>
+    <sheet name="Legal Tech" sheetId="11" r:id="rId2"/>
+    <sheet name="Kreativwerkzeuge" sheetId="10" r:id="rId3"/>
+    <sheet name="Predictive Analytics" sheetId="9" r:id="rId4"/>
+    <sheet name="Empfehlungssysteme" sheetId="8" r:id="rId5"/>
+    <sheet name="Sprachassistenten" sheetId="7" r:id="rId6"/>
+    <sheet name="Multimodal" sheetId="2" r:id="rId7"/>
+    <sheet name="Game-AI" sheetId="3" r:id="rId8"/>
+    <sheet name="Code-Generation" sheetId="4" r:id="rId9"/>
+    <sheet name="Bild- und Video-Generation" sheetId="5" r:id="rId10"/>
+    <sheet name="Robotik &amp; Automatisierung" sheetId="6" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="83">
+  <si>
+    <t>NLP (Natural Language Processing)</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>DeepSeek</t>
+  </si>
+  <si>
+    <t>Cohere</t>
+  </si>
+  <si>
+    <t>Replika</t>
+  </si>
+  <si>
+    <t>Sparrow (DeepMind)</t>
+  </si>
+  <si>
+    <t>ChatGPT</t>
+  </si>
+  <si>
+    <t>https://openai.com/chatgpt</t>
+  </si>
+  <si>
+    <t>Google Bard</t>
+  </si>
+  <si>
+    <t>Claude</t>
+  </si>
+  <si>
+    <t>Microsoft Bing Chat</t>
+  </si>
+  <si>
+    <t>LLaMA (Meta)</t>
+  </si>
+  <si>
+    <t>HuggingChat (Hugging Face)</t>
+  </si>
+  <si>
+    <t>Perplexity AI</t>
+  </si>
+  <si>
+    <t>Jasper AI</t>
+  </si>
+  <si>
+    <t>Character.AI</t>
+  </si>
+  <si>
+    <t>OpenAssistant</t>
+  </si>
+  <si>
+    <t>https://www.deepseek.ai</t>
+  </si>
+  <si>
+    <t>https://bard.google.com</t>
+  </si>
+  <si>
+    <t>https://www.anthropic.com/claude</t>
+  </si>
+  <si>
+    <t>https://www.bing.com/chat</t>
+  </si>
+  <si>
+    <t>https://ai.facebook.com/blog/large-language-model-llama-meta-ai/</t>
+  </si>
+  <si>
+    <t>https://cohere.ai</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/chat/</t>
+  </si>
+  <si>
+    <t>https://www.perplexity.ai</t>
+  </si>
+  <si>
+    <t>https://www.jasper.ai</t>
+  </si>
+  <si>
+    <t>https://beta.character.ai</t>
+  </si>
+  <si>
+    <t>https://replika.ai</t>
+  </si>
+  <si>
+    <t>https://open-assistant.io</t>
+  </si>
+  <si>
+    <t>https://www.deepmind.com/research/publications/sparrow-dialogue-agent</t>
+  </si>
+  <si>
+    <t>Multimodal</t>
+  </si>
+  <si>
+    <t>DALL-E (OpenAI)</t>
+  </si>
+  <si>
+    <t>https://openai.com/dall-e-2/</t>
+  </si>
+  <si>
+    <t>MidJourney</t>
+  </si>
+  <si>
+    <t>https://www.midjourney.com</t>
+  </si>
+  <si>
+    <t>Code-Generation</t>
+  </si>
+  <si>
+    <t>GitHub Copilot</t>
+  </si>
+  <si>
+    <t>https://github.com/features/copilot</t>
+  </si>
+  <si>
+    <t>Tabnine</t>
+  </si>
+  <si>
+    <t>https://www.tabnine.com</t>
+  </si>
+  <si>
+    <t>CodeT5</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/Salesforce/codet5</t>
+  </si>
+  <si>
+    <t>Bild- und Video-Generation</t>
+  </si>
+  <si>
+    <t>Stable Diffusion</t>
+  </si>
+  <si>
+    <t>https://stablediffusionweb.com</t>
+  </si>
+  <si>
+    <t>Runway Gen-2</t>
+  </si>
+  <si>
+    <t>https://runwayml.com</t>
+  </si>
+  <si>
+    <t>Sprachassistenten</t>
+  </si>
+  <si>
+    <t>Siri</t>
+  </si>
+  <si>
+    <t>https://www.apple.com/siri/</t>
+  </si>
+  <si>
+    <t>Alexa</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/alexa</t>
+  </si>
+  <si>
+    <t>Google Assistant</t>
+  </si>
+  <si>
+    <t>https://assistant.google.com</t>
+  </si>
+  <si>
+    <t>Empfehlungssysteme</t>
+  </si>
+  <si>
+    <t>Netflix Recommendations</t>
+  </si>
+  <si>
+    <t>https://help.netflix.com/en/node/100639</t>
+  </si>
+  <si>
+    <t>Spotify Recommendations</t>
+  </si>
+  <si>
+    <t>https://developer.spotify.com/documentation/web-api/reference/get-recommendations</t>
+  </si>
+  <si>
+    <t>Game-AI</t>
+  </si>
+  <si>
+    <t>OpenAI Five (Dota 2 AI)</t>
+  </si>
+  <si>
+    <t>https://openai.com/research/openai-five</t>
+  </si>
+  <si>
+    <t>DeepMind AlphaGo</t>
+  </si>
+  <si>
+    <t>https://deepmind.com/research/highlighted-research/alphago</t>
+  </si>
+  <si>
+    <t>Robotik &amp; Automatisierung</t>
+  </si>
+  <si>
+    <t>Boston Dynamics</t>
+  </si>
+  <si>
+    <t>https://www.bostondynamics.com</t>
+  </si>
+  <si>
+    <t>Tesla Autopilot</t>
+  </si>
+  <si>
+    <t>https://www.tesla.com/autopilot</t>
+  </si>
+  <si>
+    <t>Predictive Analytics</t>
+  </si>
+  <si>
+    <t>Google Cloud AI Predictions</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/ai-platform/prediction</t>
+  </si>
+  <si>
+    <t>IBM Watson Predictive Analytics</t>
+  </si>
+  <si>
+    <t>https://www.ibm.com/products/spss-statistics</t>
+  </si>
+  <si>
+    <t>Kreativwerkzeuge</t>
+  </si>
+  <si>
+    <t>AIVA (AI Music Composition)</t>
+  </si>
+  <si>
+    <t>https://www.aiva.ai</t>
+  </si>
+  <si>
+    <t>Legal Tech</t>
+  </si>
+  <si>
+    <t>DoNotPay</t>
+  </si>
+  <si>
+    <t>https://donotpay.com</t>
+  </si>
+  <si>
+    <t>Kira Systems</t>
+  </si>
+  <si>
+    <t>https://www.kirasystems.com</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -49,11 +352,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +385,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -79,42 +395,42 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -144,12 +460,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -179,6 +512,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -240,13 +590,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -255,6 +598,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -319,24 +669,802 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D8CC09-275F-45C8-81B2-23CBFF537BEA}">
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.36328125" customWidth="1"/>
+    <col min="3" max="3" width="26.26953125" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" customWidth="1"/>
+    <col min="5" max="5" width="72.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" customWidth="1"/>
+    <col min="8" max="8" width="30.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="19" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="26" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D36" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676404C6-0564-470B-A278-33978CFC41A2}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="18.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1556CC0B-2D20-46BC-82B7-37FE160E9908}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="24.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D485EA00-2281-433D-A9F1-85A2FC77856D}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8281EC-10CD-4BC2-9DDA-71E5182669FA}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.08984375" customWidth="1"/>
+    <col min="2" max="2" width="19.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54E6F68-4978-448F-B8FF-3E0247B94292}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.08984375" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D87719-4274-4D51-9954-ED7E428C41B2}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.08984375" customWidth="1"/>
+    <col min="2" max="2" width="37.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAD815A-2153-4DB9-828C-C903D28374F6}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="26.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CEA2DB-54F5-4CDE-9CBB-323795B77433}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35375D02-D492-4826-86E6-418148186F84}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="27.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA68178D-16AE-4972-A6CB-F8CBC6F9635C}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>